--- a/dataanalysis/data/predictions/1200/09101136_1137.xlsx
+++ b/dataanalysis/data/predictions/1200/09101136_1137.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="118">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-10</t>
   </si>
   <si>
@@ -365,12 +368,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -728,13 +725,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH52"/>
+  <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -837,19 +834,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300014</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-4.32</v>
@@ -867,7 +867,7 @@
         <v>524231.12</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K2">
         <v>4</v>
@@ -908,8 +908,23 @@
       <c r="W2">
         <v>-0.32</v>
       </c>
+      <c r="X2">
+        <v>2.21</v>
+      </c>
+      <c r="Y2">
+        <v>72.70999999999999</v>
+      </c>
+      <c r="Z2">
+        <v>5.21</v>
+      </c>
       <c r="AC2" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -917,22 +932,25 @@
       <c r="AG2">
         <v>-3.971683502197266</v>
       </c>
-      <c r="AH2" t="s">
-        <v>117</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300092</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-5.76</v>
@@ -950,7 +968,7 @@
         <v>58547.34</v>
       </c>
       <c r="J3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3">
         <v>6</v>
@@ -991,8 +1009,23 @@
       <c r="W3">
         <v>-0.44</v>
       </c>
+      <c r="X3">
+        <v>-0.47</v>
+      </c>
+      <c r="Y3">
+        <v>19.27</v>
+      </c>
+      <c r="Z3">
+        <v>0.63</v>
+      </c>
       <c r="AC3" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1000,22 +1033,25 @@
       <c r="AG3">
         <v>5.110027313232422</v>
       </c>
-      <c r="AH3" t="s">
-        <v>117</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300139</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0.22</v>
@@ -1033,7 +1069,7 @@
         <v>249076.17</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -1074,8 +1110,23 @@
       <c r="W4">
         <v>0.06</v>
       </c>
+      <c r="X4">
+        <v>-2.15</v>
+      </c>
+      <c r="Y4">
+        <v>28.58</v>
+      </c>
+      <c r="Z4">
+        <v>4.27</v>
+      </c>
       <c r="AC4" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1083,22 +1134,25 @@
       <c r="AG4">
         <v>1.206090331077576</v>
       </c>
-      <c r="AH4" t="s">
-        <v>117</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300237</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-1.47</v>
@@ -1116,7 +1170,7 @@
         <v>37372.05</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -1157,8 +1211,23 @@
       <c r="W5">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X5">
+        <v>0.6</v>
+      </c>
+      <c r="Y5">
+        <v>3.48</v>
+      </c>
+      <c r="Z5">
+        <v>3.57</v>
+      </c>
       <c r="AC5" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1166,22 +1235,25 @@
       <c r="AG5">
         <v>-5.927642822265625</v>
       </c>
-      <c r="AH5" t="s">
-        <v>117</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300274</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-2.99</v>
@@ -1199,7 +1271,7 @@
         <v>1036550.04</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K6">
         <v>6</v>
@@ -1240,8 +1312,23 @@
       <c r="W6">
         <v>-0.3</v>
       </c>
+      <c r="X6">
+        <v>7.05</v>
+      </c>
+      <c r="Y6">
+        <v>137.34</v>
+      </c>
+      <c r="Z6">
+        <v>9</v>
+      </c>
       <c r="AC6" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1249,22 +1336,25 @@
       <c r="AG6">
         <v>-5.565576076507568</v>
       </c>
-      <c r="AH6" t="s">
-        <v>117</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300277</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-3.54</v>
@@ -1282,7 +1372,7 @@
         <v>37533.98</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1323,8 +1413,23 @@
       <c r="W7">
         <v>-0.61</v>
       </c>
+      <c r="X7">
+        <v>2.5</v>
+      </c>
+      <c r="Y7">
+        <v>15.96</v>
+      </c>
+      <c r="Z7">
+        <v>4.52</v>
+      </c>
       <c r="AC7" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1332,22 +1437,25 @@
       <c r="AG7">
         <v>2.836295127868652</v>
       </c>
-      <c r="AH7" t="s">
-        <v>117</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300308</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>7.77</v>
@@ -1365,7 +1473,7 @@
         <v>1692526.28</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8">
         <v>42</v>
@@ -1406,8 +1514,23 @@
       <c r="W8">
         <v>0.33</v>
       </c>
+      <c r="X8">
+        <v>14.28</v>
+      </c>
+      <c r="Y8">
+        <v>443.99</v>
+      </c>
+      <c r="Z8">
+        <v>14.67</v>
+      </c>
       <c r="AC8" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1415,22 +1538,25 @@
       <c r="AG8">
         <v>0.1400161534547806</v>
       </c>
-      <c r="AH8" t="s">
-        <v>117</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300409</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>1.09</v>
@@ -1448,7 +1574,7 @@
         <v>133514.92</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K9">
         <v>18</v>
@@ -1489,8 +1615,23 @@
       <c r="W9">
         <v>0.32</v>
       </c>
+      <c r="X9">
+        <v>4.75</v>
+      </c>
+      <c r="Y9">
+        <v>26.99</v>
+      </c>
+      <c r="Z9">
+        <v>11.9</v>
+      </c>
       <c r="AC9" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1498,22 +1639,25 @@
       <c r="AG9">
         <v>2.807034015655518</v>
       </c>
-      <c r="AH9" t="s">
-        <v>117</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300450</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>3.3</v>
@@ -1531,7 +1675,7 @@
         <v>952042.09</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K10">
         <v>9</v>
@@ -1572,8 +1716,23 @@
       <c r="W10">
         <v>0.62</v>
       </c>
+      <c r="X10">
+        <v>2.59</v>
+      </c>
+      <c r="Y10">
+        <v>60.5</v>
+      </c>
+      <c r="Z10">
+        <v>4.47</v>
+      </c>
       <c r="AC10" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1581,22 +1740,25 @@
       <c r="AG10">
         <v>19.87082672119141</v>
       </c>
-      <c r="AH10" t="s">
-        <v>117</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300465</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>0.43</v>
@@ -1614,7 +1776,7 @@
         <v>69660.95</v>
       </c>
       <c r="J11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K11">
         <v>10</v>
@@ -1655,8 +1817,23 @@
       <c r="W11">
         <v>-0.16</v>
       </c>
+      <c r="X11">
+        <v>-0.24</v>
+      </c>
+      <c r="Y11">
+        <v>25.6</v>
+      </c>
+      <c r="Z11">
+        <v>0.23</v>
+      </c>
       <c r="AC11" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1664,22 +1841,25 @@
       <c r="AG11">
         <v>1.588994026184082</v>
       </c>
-      <c r="AH11" t="s">
-        <v>117</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300469</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>2.16</v>
@@ -1697,7 +1877,7 @@
         <v>84947.00999999999</v>
       </c>
       <c r="J12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K12">
         <v>15</v>
@@ -1738,8 +1918,23 @@
       <c r="W12">
         <v>-0.16</v>
       </c>
+      <c r="X12">
+        <v>4.18</v>
+      </c>
+      <c r="Y12">
+        <v>73.58</v>
+      </c>
+      <c r="Z12">
+        <v>6.07</v>
+      </c>
       <c r="AC12" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1747,22 +1942,25 @@
       <c r="AG12">
         <v>1.892135500907898</v>
       </c>
-      <c r="AH12" t="s">
-        <v>117</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300475</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-0.06</v>
@@ -1780,7 +1978,7 @@
         <v>136152.33</v>
       </c>
       <c r="J13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K13">
         <v>4</v>
@@ -1821,8 +2019,23 @@
       <c r="W13">
         <v>-0.12</v>
       </c>
+      <c r="X13">
+        <v>20</v>
+      </c>
+      <c r="Y13">
+        <v>64.51000000000001</v>
+      </c>
+      <c r="Z13">
+        <v>20.65</v>
+      </c>
       <c r="AC13" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1830,22 +2043,25 @@
       <c r="AG13">
         <v>1.669187426567078</v>
       </c>
-      <c r="AH13" t="s">
-        <v>117</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300476</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>11.76</v>
@@ -1863,7 +2079,7 @@
         <v>1653711.26</v>
       </c>
       <c r="J14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K14">
         <v>66</v>
@@ -1904,8 +2120,23 @@
       <c r="W14">
         <v>0.5600000000000001</v>
       </c>
+      <c r="X14">
+        <v>16.28</v>
+      </c>
+      <c r="Y14">
+        <v>345.88</v>
+      </c>
+      <c r="Z14">
+        <v>19.26</v>
+      </c>
       <c r="AC14" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1913,22 +2144,25 @@
       <c r="AG14">
         <v>-7.230621814727783</v>
       </c>
-      <c r="AH14" t="s">
-        <v>117</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300528</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>15.7</v>
@@ -1946,7 +2180,7 @@
         <v>164640.65</v>
       </c>
       <c r="J15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1987,8 +2221,23 @@
       <c r="W15">
         <v>0.97</v>
       </c>
+      <c r="X15">
+        <v>-11.6</v>
+      </c>
+      <c r="Y15">
+        <v>28</v>
+      </c>
+      <c r="Z15">
+        <v>-5.98</v>
+      </c>
       <c r="AC15" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -1996,22 +2245,25 @@
       <c r="AG15">
         <v>90.83826446533203</v>
       </c>
-      <c r="AH15" t="s">
-        <v>117</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300539</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>0.95</v>
@@ -2029,7 +2281,7 @@
         <v>81310.67999999999</v>
       </c>
       <c r="J16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K16">
         <v>4</v>
@@ -2070,8 +2322,23 @@
       <c r="W16">
         <v>-0.41</v>
       </c>
+      <c r="X16">
+        <v>0.75</v>
+      </c>
+      <c r="Y16">
+        <v>39.95</v>
+      </c>
+      <c r="Z16">
+        <v>1.99</v>
+      </c>
       <c r="AC16" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2079,22 +2346,25 @@
       <c r="AG16">
         <v>2.959784507751465</v>
       </c>
-      <c r="AH16" t="s">
-        <v>117</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300584</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-3.19</v>
@@ -2112,7 +2382,7 @@
         <v>72959.14</v>
       </c>
       <c r="J17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17">
         <v>22</v>
@@ -2153,8 +2423,23 @@
       <c r="W17">
         <v>-0.89</v>
       </c>
+      <c r="X17">
+        <v>-3.18</v>
+      </c>
+      <c r="Y17">
+        <v>70.77</v>
+      </c>
+      <c r="Z17">
+        <v>-0.46</v>
+      </c>
       <c r="AC17" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2162,22 +2447,25 @@
       <c r="AG17">
         <v>-2.486863374710083</v>
       </c>
-      <c r="AH17" t="s">
-        <v>117</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300618</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>1.75</v>
@@ -2195,7 +2483,7 @@
         <v>123628.52</v>
       </c>
       <c r="J18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K18">
         <v>4</v>
@@ -2236,8 +2524,23 @@
       <c r="W18">
         <v>0.34</v>
       </c>
+      <c r="X18">
+        <v>2</v>
+      </c>
+      <c r="Y18">
+        <v>53.8</v>
+      </c>
+      <c r="Z18">
+        <v>6.6</v>
+      </c>
       <c r="AC18" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2245,22 +2548,25 @@
       <c r="AG18">
         <v>6.845521926879883</v>
       </c>
-      <c r="AH18" t="s">
-        <v>117</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300619</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-5.97</v>
@@ -2278,7 +2584,7 @@
         <v>70042.87</v>
       </c>
       <c r="J19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2319,8 +2625,23 @@
       <c r="W19">
         <v>-0.27</v>
       </c>
+      <c r="X19">
+        <v>2.86</v>
+      </c>
+      <c r="Y19">
+        <v>37.09</v>
+      </c>
+      <c r="Z19">
+        <v>4.19</v>
+      </c>
       <c r="AC19" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>1</v>
@@ -2328,22 +2649,25 @@
       <c r="AG19">
         <v>7.028064250946045</v>
       </c>
-      <c r="AH19" t="s">
-        <v>117</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300763</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-4.85</v>
@@ -2361,7 +2685,7 @@
         <v>241433.6</v>
       </c>
       <c r="J20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -2402,8 +2726,23 @@
       <c r="W20">
         <v>-1.04</v>
       </c>
+      <c r="X20">
+        <v>0.97</v>
+      </c>
+      <c r="Y20">
+        <v>85.47</v>
+      </c>
+      <c r="Z20">
+        <v>1.6</v>
+      </c>
       <c r="AC20" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2411,22 +2750,25 @@
       <c r="AG20">
         <v>3.332205295562744</v>
       </c>
-      <c r="AH20" t="s">
-        <v>117</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300790</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -2444,7 +2786,7 @@
         <v>70078.56</v>
       </c>
       <c r="J21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K21">
         <v>7</v>
@@ -2485,8 +2827,23 @@
       <c r="W21">
         <v>-0.1</v>
       </c>
+      <c r="X21">
+        <v>3.23</v>
+      </c>
+      <c r="Y21">
+        <v>35.8</v>
+      </c>
+      <c r="Z21">
+        <v>11.87</v>
+      </c>
       <c r="AC21" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2494,22 +2851,25 @@
       <c r="AG21">
         <v>7.33924388885498</v>
       </c>
-      <c r="AH21" t="s">
-        <v>117</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300792</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2527,7 +2887,7 @@
         <v>49364.69</v>
       </c>
       <c r="J22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2568,8 +2928,23 @@
       <c r="W22">
         <v>-0.03</v>
       </c>
+      <c r="X22">
+        <v>-1.86</v>
+      </c>
+      <c r="Y22">
+        <v>32.38</v>
+      </c>
+      <c r="Z22">
+        <v>-1.07</v>
+      </c>
       <c r="AC22" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2577,22 +2952,25 @@
       <c r="AG22">
         <v>3.203353643417358</v>
       </c>
-      <c r="AH22" t="s">
-        <v>117</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300801</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-6.17</v>
@@ -2610,7 +2988,7 @@
         <v>65447.74</v>
       </c>
       <c r="J23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -2651,8 +3029,23 @@
       <c r="W23">
         <v>-1.05</v>
       </c>
+      <c r="X23">
+        <v>-2.68</v>
+      </c>
+      <c r="Y23">
+        <v>29.87</v>
+      </c>
+      <c r="Z23">
+        <v>-0.33</v>
+      </c>
       <c r="AC23" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2660,22 +3053,25 @@
       <c r="AG23">
         <v>3.934095144271851</v>
       </c>
-      <c r="AH23" t="s">
-        <v>117</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300827</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-11.47</v>
@@ -2693,7 +3089,7 @@
         <v>240600.83</v>
       </c>
       <c r="J24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K24">
         <v>5</v>
@@ -2734,8 +3130,23 @@
       <c r="W24">
         <v>-2.44</v>
       </c>
+      <c r="X24">
+        <v>1.5</v>
+      </c>
+      <c r="Y24">
+        <v>33.81</v>
+      </c>
+      <c r="Z24">
+        <v>3.3</v>
+      </c>
       <c r="AC24" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2743,22 +3154,25 @@
       <c r="AG24">
         <v>2.824840545654297</v>
       </c>
-      <c r="AH24" t="s">
-        <v>117</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300857</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>11.44</v>
@@ -2776,7 +3190,7 @@
         <v>303888.13</v>
       </c>
       <c r="J25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K25">
         <v>14</v>
@@ -2817,8 +3231,23 @@
       <c r="W25">
         <v>0.19</v>
       </c>
+      <c r="X25">
+        <v>7.07</v>
+      </c>
+      <c r="Y25">
+        <v>138.18</v>
+      </c>
+      <c r="Z25">
+        <v>7.81</v>
+      </c>
       <c r="AC25" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2826,22 +3255,25 @@
       <c r="AG25">
         <v>10.80507659912109</v>
       </c>
-      <c r="AH25" t="s">
-        <v>117</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300997</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>3.65</v>
@@ -2859,7 +3291,7 @@
         <v>42101.9</v>
       </c>
       <c r="J26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K26">
         <v>4</v>
@@ -2900,8 +3332,23 @@
       <c r="W26">
         <v>-0.08</v>
       </c>
+      <c r="X26">
+        <v>-3.7</v>
+      </c>
+      <c r="Y26">
+        <v>21.56</v>
+      </c>
+      <c r="Z26">
+        <v>2.67</v>
+      </c>
       <c r="AC26" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2909,22 +3356,25 @@
       <c r="AG26">
         <v>2.701305627822876</v>
       </c>
-      <c r="AH26" t="s">
-        <v>117</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>301076</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-3.85</v>
@@ -2942,7 +3392,7 @@
         <v>113456.22</v>
       </c>
       <c r="J27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2983,8 +3433,23 @@
       <c r="W27">
         <v>-1.42</v>
       </c>
+      <c r="X27">
+        <v>3.06</v>
+      </c>
+      <c r="Y27">
+        <v>62.48</v>
+      </c>
+      <c r="Z27">
+        <v>5.17</v>
+      </c>
       <c r="AC27" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -2992,22 +3457,25 @@
       <c r="AG27">
         <v>-0.02155214548110962</v>
       </c>
-      <c r="AH27" t="s">
-        <v>117</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>301150</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-0.75</v>
@@ -3025,7 +3493,7 @@
         <v>51964.96</v>
       </c>
       <c r="J28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K28">
         <v>7</v>
@@ -3066,8 +3534,23 @@
       <c r="W28">
         <v>-0.65</v>
       </c>
+      <c r="X28">
+        <v>6.71</v>
+      </c>
+      <c r="Y28">
+        <v>41.08</v>
+      </c>
+      <c r="Z28">
+        <v>10.4</v>
+      </c>
       <c r="AC28" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3075,22 +3558,25 @@
       <c r="AG28">
         <v>0.5714004635810852</v>
       </c>
-      <c r="AH28" t="s">
-        <v>117</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>301238</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-5.46</v>
@@ -3108,7 +3594,7 @@
         <v>82446.10000000001</v>
       </c>
       <c r="J29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -3149,8 +3635,23 @@
       <c r="W29">
         <v>-0.42</v>
       </c>
+      <c r="X29">
+        <v>-0.62</v>
+      </c>
+      <c r="Y29">
+        <v>23.1</v>
+      </c>
+      <c r="Z29">
+        <v>1.81</v>
+      </c>
       <c r="AC29" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3158,22 +3659,25 @@
       <c r="AG29">
         <v>10.10897254943848</v>
       </c>
-      <c r="AH29" t="s">
-        <v>117</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>301413</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-2.83</v>
@@ -3191,7 +3695,7 @@
         <v>44322.14</v>
       </c>
       <c r="J30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K30">
         <v>14</v>
@@ -3232,8 +3736,23 @@
       <c r="W30">
         <v>-0.54</v>
       </c>
+      <c r="X30">
+        <v>4.32</v>
+      </c>
+      <c r="Y30">
+        <v>144.93</v>
+      </c>
+      <c r="Z30">
+        <v>4.15</v>
+      </c>
       <c r="AC30" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3241,22 +3760,25 @@
       <c r="AG30">
         <v>6.583297729492188</v>
       </c>
-      <c r="AH30" t="s">
-        <v>117</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>301486</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-0.1</v>
@@ -3274,7 +3796,7 @@
         <v>57960.22</v>
       </c>
       <c r="J31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K31">
         <v>4</v>
@@ -3315,8 +3837,23 @@
       <c r="W31">
         <v>-0.38</v>
       </c>
+      <c r="X31">
+        <v>2.51</v>
+      </c>
+      <c r="Y31">
+        <v>106.66</v>
+      </c>
+      <c r="Z31">
+        <v>6.98</v>
+      </c>
       <c r="AC31" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3324,22 +3861,25 @@
       <c r="AG31">
         <v>2.082740545272827</v>
       </c>
-      <c r="AH31" t="s">
-        <v>117</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>301488</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-7.52</v>
@@ -3357,7 +3897,7 @@
         <v>66553.46000000001</v>
       </c>
       <c r="J32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K32">
         <v>11</v>
@@ -3398,8 +3938,23 @@
       <c r="W32">
         <v>-0.5600000000000001</v>
       </c>
+      <c r="X32">
+        <v>7.13</v>
+      </c>
+      <c r="Y32">
+        <v>149.77</v>
+      </c>
+      <c r="Z32">
+        <v>10.94</v>
+      </c>
       <c r="AC32" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3407,22 +3962,25 @@
       <c r="AG32">
         <v>2.633012056350708</v>
       </c>
-      <c r="AH32" t="s">
-        <v>117</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>301489</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>16.2</v>
@@ -3440,7 +3998,7 @@
         <v>119230.26</v>
       </c>
       <c r="J33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -3481,8 +4039,23 @@
       <c r="W33">
         <v>0.88</v>
       </c>
+      <c r="X33">
+        <v>-1.28</v>
+      </c>
+      <c r="Y33">
+        <v>237.81</v>
+      </c>
+      <c r="Z33">
+        <v>7.12</v>
+      </c>
       <c r="AC33" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3490,22 +4063,25 @@
       <c r="AG33">
         <v>0.5426852703094482</v>
       </c>
-      <c r="AH33" t="s">
-        <v>117</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>301617</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-0.7</v>
@@ -3523,7 +4099,7 @@
         <v>52758.47</v>
       </c>
       <c r="J34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K34">
         <v>14</v>
@@ -3564,8 +4140,23 @@
       <c r="W34">
         <v>-0.18</v>
       </c>
+      <c r="X34">
+        <v>-3.99</v>
+      </c>
+      <c r="Y34">
+        <v>93.84999999999999</v>
+      </c>
+      <c r="Z34">
+        <v>11.58</v>
+      </c>
       <c r="AC34" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3573,22 +4164,25 @@
       <c r="AG34">
         <v>0.3509036898612976</v>
       </c>
-      <c r="AH34" t="s">
-        <v>117</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>688005</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-3.54</v>
@@ -3606,7 +4200,7 @@
         <v>101635.38</v>
       </c>
       <c r="J35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -3647,8 +4241,23 @@
       <c r="W35">
         <v>-0.8</v>
       </c>
+      <c r="X35">
+        <v>1.01</v>
+      </c>
+      <c r="Y35">
+        <v>29.14</v>
+      </c>
+      <c r="Z35">
+        <v>3.81</v>
+      </c>
       <c r="AC35" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3656,22 +4265,25 @@
       <c r="AG35">
         <v>-0.7489275932312012</v>
       </c>
-      <c r="AH35" t="s">
-        <v>117</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>688006</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>2.02</v>
@@ -3689,7 +4301,7 @@
         <v>104585.3</v>
       </c>
       <c r="J36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K36">
         <v>8</v>
@@ -3730,8 +4342,23 @@
       <c r="W36">
         <v>0.18</v>
       </c>
+      <c r="X36">
+        <v>-3.36</v>
+      </c>
+      <c r="Y36">
+        <v>41.29</v>
+      </c>
+      <c r="Z36">
+        <v>3.54</v>
+      </c>
       <c r="AC36" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3739,22 +4366,25 @@
       <c r="AG36">
         <v>3.100652456283569</v>
       </c>
-      <c r="AH36" t="s">
-        <v>117</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>688028</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>3.19</v>
@@ -3772,7 +4402,7 @@
         <v>29538.69</v>
       </c>
       <c r="J37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -3813,8 +4443,23 @@
       <c r="W37">
         <v>0.46</v>
       </c>
+      <c r="X37">
+        <v>3.28</v>
+      </c>
+      <c r="Y37">
+        <v>37.7</v>
+      </c>
+      <c r="Z37">
+        <v>8.960000000000001</v>
+      </c>
       <c r="AC37" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3822,22 +4467,25 @@
       <c r="AG37">
         <v>3.791951179504395</v>
       </c>
-      <c r="AH37" t="s">
-        <v>117</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>688066</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>3.13</v>
@@ -3855,7 +4503,7 @@
         <v>76487.86</v>
       </c>
       <c r="J38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K38">
         <v>4</v>
@@ -3896,8 +4544,23 @@
       <c r="W38">
         <v>0.1</v>
       </c>
+      <c r="X38">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Y38">
+        <v>37.4</v>
+      </c>
+      <c r="Z38">
+        <v>1.27</v>
+      </c>
       <c r="AC38" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -3905,22 +4568,25 @@
       <c r="AG38">
         <v>12.61937618255615</v>
       </c>
-      <c r="AH38" t="s">
-        <v>117</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>688116</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-1.74</v>
@@ -3938,7 +4604,7 @@
         <v>68250.64999999999</v>
       </c>
       <c r="J39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K39">
         <v>4</v>
@@ -3979,8 +4645,23 @@
       <c r="W39">
         <v>-0.13</v>
       </c>
+      <c r="X39">
+        <v>1.5</v>
+      </c>
+      <c r="Y39">
+        <v>56.39</v>
+      </c>
+      <c r="Z39">
+        <v>2.06</v>
+      </c>
       <c r="AC39" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -3988,22 +4669,25 @@
       <c r="AG39">
         <v>-1.30435037612915</v>
       </c>
-      <c r="AH39" t="s">
-        <v>117</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>688141</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>0.44</v>
@@ -4021,7 +4705,7 @@
         <v>33946.49</v>
       </c>
       <c r="J40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K40">
         <v>6</v>
@@ -4062,8 +4746,23 @@
       <c r="W40">
         <v>0.19</v>
       </c>
+      <c r="X40">
+        <v>11.03</v>
+      </c>
+      <c r="Y40">
+        <v>52.66</v>
+      </c>
+      <c r="Z40">
+        <v>14.21</v>
+      </c>
       <c r="AC40" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4071,22 +4770,25 @@
       <c r="AG40">
         <v>7.073459625244141</v>
       </c>
-      <c r="AH40" t="s">
-        <v>117</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688147</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-1.39</v>
@@ -4104,7 +4806,7 @@
         <v>48080.44</v>
       </c>
       <c r="J41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K41">
         <v>18</v>
@@ -4145,8 +4847,23 @@
       <c r="W41">
         <v>-1.39</v>
       </c>
+      <c r="X41">
+        <v>0.27</v>
+      </c>
+      <c r="Y41">
+        <v>47.35</v>
+      </c>
+      <c r="Z41">
+        <v>4.43</v>
+      </c>
       <c r="AC41" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4154,22 +4871,25 @@
       <c r="AG41">
         <v>21.64009666442871</v>
       </c>
-      <c r="AH41" t="s">
-        <v>117</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688155</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-4.34</v>
@@ -4187,7 +4907,7 @@
         <v>48458.77</v>
       </c>
       <c r="J42" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K42">
         <v>9</v>
@@ -4228,8 +4948,23 @@
       <c r="W42">
         <v>-0.38</v>
       </c>
+      <c r="X42">
+        <v>3.26</v>
+      </c>
+      <c r="Y42">
+        <v>79.19</v>
+      </c>
+      <c r="Z42">
+        <v>4.86</v>
+      </c>
       <c r="AC42" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4237,22 +4972,25 @@
       <c r="AG42">
         <v>9.119694709777832</v>
       </c>
-      <c r="AH42" t="s">
-        <v>117</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688170</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>0.57</v>
@@ -4270,7 +5008,7 @@
         <v>25728.49</v>
       </c>
       <c r="J43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K43">
         <v>3</v>
@@ -4311,8 +5049,23 @@
       <c r="W43">
         <v>-0.62</v>
       </c>
+      <c r="X43">
+        <v>1.97</v>
+      </c>
+      <c r="Y43">
+        <v>47.33</v>
+      </c>
+      <c r="Z43">
+        <v>3.21</v>
+      </c>
       <c r="AC43" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4320,22 +5073,25 @@
       <c r="AG43">
         <v>5.498744010925293</v>
       </c>
-      <c r="AH43" t="s">
-        <v>117</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688195</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-3.14</v>
@@ -4353,7 +5109,7 @@
         <v>94078.49000000001</v>
       </c>
       <c r="J44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K44">
         <v>18</v>
@@ -4394,8 +5150,23 @@
       <c r="W44">
         <v>-0.76</v>
       </c>
+      <c r="X44">
+        <v>20</v>
+      </c>
+      <c r="Y44">
+        <v>101.44</v>
+      </c>
+      <c r="Z44">
+        <v>17.41</v>
+      </c>
       <c r="AC44" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4403,22 +5174,25 @@
       <c r="AG44">
         <v>0.246166467666626</v>
       </c>
-      <c r="AH44" t="s">
-        <v>117</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688228</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>3.94</v>
@@ -4436,7 +5210,7 @@
         <v>51622.13</v>
       </c>
       <c r="J45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -4477,8 +5251,23 @@
       <c r="W45">
         <v>-0.2</v>
       </c>
+      <c r="X45">
+        <v>5.86</v>
+      </c>
+      <c r="Y45">
+        <v>142.79</v>
+      </c>
+      <c r="Z45">
+        <v>8.17</v>
+      </c>
       <c r="AC45" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4486,22 +5275,25 @@
       <c r="AG45">
         <v>6.918984889984131</v>
       </c>
-      <c r="AH45" t="s">
-        <v>117</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688331</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-1.13</v>
@@ -4519,7 +5311,7 @@
         <v>77689.47</v>
       </c>
       <c r="J46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -4560,8 +5352,23 @@
       <c r="W46">
         <v>-0.03</v>
       </c>
+      <c r="X46">
+        <v>6.81</v>
+      </c>
+      <c r="Y46">
+        <v>114</v>
+      </c>
+      <c r="Z46">
+        <v>10.78</v>
+      </c>
       <c r="AC46" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4569,22 +5376,25 @@
       <c r="AG46">
         <v>2.07320237159729</v>
       </c>
-      <c r="AH46" t="s">
-        <v>117</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688353</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-2.58</v>
@@ -4602,7 +5412,7 @@
         <v>29851.4</v>
       </c>
       <c r="J47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -4643,8 +5453,23 @@
       <c r="W47">
         <v>-0.53</v>
       </c>
+      <c r="X47">
+        <v>4.17</v>
+      </c>
+      <c r="Y47">
+        <v>48.19</v>
+      </c>
+      <c r="Z47">
+        <v>7.07</v>
+      </c>
       <c r="AC47" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4652,22 +5477,25 @@
       <c r="AG47">
         <v>3.840155839920044</v>
       </c>
-      <c r="AH47" t="s">
-        <v>117</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688388</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>17.19</v>
@@ -4685,7 +5513,7 @@
         <v>233789.54</v>
       </c>
       <c r="J48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K48">
         <v>7</v>
@@ -4726,8 +5554,23 @@
       <c r="W48">
         <v>0.79</v>
       </c>
+      <c r="X48">
+        <v>2.05</v>
+      </c>
+      <c r="Y48">
+        <v>37</v>
+      </c>
+      <c r="Z48">
+        <v>10.78</v>
+      </c>
       <c r="AC48" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD48">
+        <v>1</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
       </c>
       <c r="AF48">
         <v>1</v>
@@ -4735,22 +5578,25 @@
       <c r="AG48">
         <v>12.29732036590576</v>
       </c>
-      <c r="AH48" t="s">
-        <v>118</v>
+      <c r="AH48">
+        <v>1</v>
+      </c>
+      <c r="AI48">
+        <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688411</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-6.76</v>
@@ -4768,7 +5614,7 @@
         <v>58952.41</v>
       </c>
       <c r="J49" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K49">
         <v>7</v>
@@ -4809,8 +5655,23 @@
       <c r="W49">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="X49">
+        <v>6.72</v>
+      </c>
+      <c r="Y49">
+        <v>178.9</v>
+      </c>
+      <c r="Z49">
+        <v>7.13</v>
+      </c>
       <c r="AC49" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4818,22 +5679,25 @@
       <c r="AG49">
         <v>8.426131248474121</v>
       </c>
-      <c r="AH49" t="s">
-        <v>117</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688499</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>0.54</v>
@@ -4851,7 +5715,7 @@
         <v>102793.88</v>
       </c>
       <c r="J50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K50">
         <v>4</v>
@@ -4892,8 +5756,23 @@
       <c r="W50">
         <v>-0.62</v>
       </c>
+      <c r="X50">
+        <v>-1.54</v>
+      </c>
+      <c r="Y50">
+        <v>77.5</v>
+      </c>
+      <c r="Z50">
+        <v>1.32</v>
+      </c>
       <c r="AC50" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -4901,22 +5780,25 @@
       <c r="AG50">
         <v>4.533585548400879</v>
       </c>
-      <c r="AH50" t="s">
-        <v>117</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688559</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>0.51</v>
@@ -4934,7 +5816,7 @@
         <v>55514.11</v>
       </c>
       <c r="J51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K51">
         <v>4</v>
@@ -4975,8 +5857,23 @@
       <c r="W51">
         <v>-0.08</v>
       </c>
+      <c r="X51">
+        <v>1.69</v>
+      </c>
+      <c r="Y51">
+        <v>42.36</v>
+      </c>
+      <c r="Z51">
+        <v>3.29</v>
+      </c>
       <c r="AC51" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -4984,22 +5881,25 @@
       <c r="AG51">
         <v>4.050206184387207</v>
       </c>
-      <c r="AH51" t="s">
-        <v>117</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688598</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>0.5600000000000001</v>
@@ -5017,7 +5917,7 @@
         <v>33159.67</v>
       </c>
       <c r="J52" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -5058,8 +5958,23 @@
       <c r="W52">
         <v>0.55</v>
       </c>
+      <c r="X52">
+        <v>2.15</v>
+      </c>
+      <c r="Y52">
+        <v>37.17</v>
+      </c>
+      <c r="Z52">
+        <v>2.76</v>
+      </c>
       <c r="AC52" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5067,8 +5982,11 @@
       <c r="AG52">
         <v>2.012466192245483</v>
       </c>
-      <c r="AH52" t="s">
-        <v>117</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
